--- a/Сотрудники_import.xlsx
+++ b/Сотрудники_import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comcuru\Desktop\KT_4-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comcuru\Desktop\KT4_Gaidarzhi_Vadim-ISP-431\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Лист2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Должность -&gt; Сотрудник'!$O$1:$O$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Должность -&gt; Сотрудник'!$P$1:$P$26</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="149">
   <si>
     <t>Должность</t>
   </si>
@@ -489,9 +489,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="169" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -631,24 +631,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -979,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N26"/>
+      <selection activeCell="A2" sqref="A2:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="15.75"/>
@@ -997,15 +997,16 @@
     <col min="8" max="8" width="16.125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="26.125" style="6"/>
     <col min="11" max="11" width="15" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.25" style="6" customWidth="1"/>
-    <col min="15" max="15" width="8.25" style="6" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="24" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="26.125" style="6"/>
+    <col min="12" max="12" width="16.125" style="6" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.25" style="6" customWidth="1"/>
+    <col min="16" max="16" width="8.25" style="6" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="24" style="6" customWidth="1"/>
+    <col min="18" max="16384" width="26.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31.5">
+    <row r="1" spans="1:18" ht="31.5">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1043,16 +1044,19 @@
         <v>3</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1090,20 +1094,24 @@
       <c r="L2" s="25">
         <v>1675231191000</v>
       </c>
-      <c r="M2" s="10">
-        <v>1</v>
+      <c r="M2" s="13">
+        <f>(L2/86400000)+DATE(1970,1,1)</f>
+        <v>44958.249895833331</v>
       </c>
       <c r="N2" s="10">
-        <f>LOOKUP(O2,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="O2" s="10">
+        <f>LOOKUP(P2,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="20"/>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="Q2" s="21"/>
+      <c r="R2" s="20"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1141,19 +1149,23 @@
       <c r="L3" s="25">
         <v>1676296748000</v>
       </c>
-      <c r="M3" s="10">
-        <v>1</v>
+      <c r="M3" s="13">
+        <f t="shared" ref="M3:M26" si="0">(L3/86400000)+DATE(1970,1,1)</f>
+        <v>44970.582731481481</v>
       </c>
       <c r="N3" s="10">
-        <f>LOOKUP(O3,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="O3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="10">
+        <f>LOOKUP(P3,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="19"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1191,19 +1203,23 @@
       <c r="L4" s="25">
         <v>1676051882000</v>
       </c>
-      <c r="M4" s="10">
-        <v>1</v>
+      <c r="M4" s="13">
+        <f t="shared" si="0"/>
+        <v>44967.74863425926</v>
       </c>
       <c r="N4" s="10">
-        <f>LOOKUP(O4,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="O4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="10">
+        <f>LOOKUP(P4,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="19"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="Q4" s="19"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1241,19 +1257,23 @@
       <c r="L5" s="25">
         <v>1675395308000</v>
       </c>
-      <c r="M5" s="10">
-        <v>1</v>
+      <c r="M5" s="13">
+        <f t="shared" si="0"/>
+        <v>44960.149398148147</v>
       </c>
       <c r="N5" s="10">
-        <f>LOOKUP(O5,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="10">
+        <f>LOOKUP(P5,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="P5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="19"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1291,19 +1311,23 @@
       <c r="L6" s="25">
         <v>1676496955000</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="13">
+        <f t="shared" si="0"/>
+        <v>44972.899942129632</v>
+      </c>
+      <c r="N6" s="10">
         <v>0</v>
       </c>
-      <c r="N6" s="10">
-        <f>LOOKUP(O6,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+      <c r="O6" s="10">
+        <f>LOOKUP(P6,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="P6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="19"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1341,19 +1365,23 @@
       <c r="L7" s="25">
         <v>1676146943000</v>
       </c>
-      <c r="M7" s="10">
-        <v>1</v>
+      <c r="M7" s="13">
+        <f t="shared" si="0"/>
+        <v>44968.848877314813</v>
       </c>
       <c r="N7" s="10">
-        <f>LOOKUP(O7,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="O7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="10">
+        <f>LOOKUP(P7,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="19"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1391,19 +1419,23 @@
       <c r="L8" s="25">
         <v>1676485346000</v>
       </c>
-      <c r="M8" s="10">
-        <v>1</v>
+      <c r="M8" s="13">
+        <f t="shared" si="0"/>
+        <v>44972.765578703707</v>
       </c>
       <c r="N8" s="10">
-        <f>LOOKUP(O8,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="O8" s="10">
+        <f>LOOKUP(P8,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="P8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="19"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1441,19 +1473,23 @@
       <c r="L9" s="25">
         <v>1676502184000</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="13">
+        <f t="shared" si="0"/>
+        <v>44972.960462962961</v>
+      </c>
+      <c r="N9" s="10">
         <v>0</v>
       </c>
-      <c r="N9" s="10">
-        <f>LOOKUP(O9,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="10">
+        <f>LOOKUP(P9,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="P9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="19"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1491,19 +1527,23 @@
       <c r="L10" s="25">
         <v>1675576520000</v>
       </c>
-      <c r="M10" s="10">
-        <v>1</v>
+      <c r="M10" s="13">
+        <f t="shared" si="0"/>
+        <v>44962.246759259258</v>
       </c>
       <c r="N10" s="10">
-        <f>LOOKUP(O10,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="10">
+        <f>LOOKUP(P10,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="P10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="19"/>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1541,19 +1581,22 @@
       <c r="L11" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="M11" s="10">
-        <v>1</v>
+      <c r="M11" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="N11" s="10">
-        <f>LOOKUP(O11,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="O11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="10">
+        <f>LOOKUP(P11,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="P11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="19"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1591,19 +1634,22 @@
       <c r="L12" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="N12" s="10">
         <v>0</v>
       </c>
-      <c r="N12" s="10">
-        <f>LOOKUP(O12,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="O12" s="10" t="s">
+      <c r="O12" s="10">
+        <f>LOOKUP(P12,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="P12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P12" s="19"/>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="Q12" s="19"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1641,19 +1687,23 @@
       <c r="L13" s="25">
         <v>1675538804000</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="13">
+        <f t="shared" si="0"/>
+        <v>44961.810231481482</v>
+      </c>
+      <c r="N13" s="10">
         <v>0</v>
       </c>
-      <c r="N13" s="10">
-        <f>LOOKUP(O13,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+      <c r="O13" s="10">
+        <f>LOOKUP(P13,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="P13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P13" s="19"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="Q13" s="19"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1691,19 +1741,23 @@
       <c r="L14" s="25">
         <v>1676525424000</v>
       </c>
-      <c r="M14" s="10">
-        <v>1</v>
+      <c r="M14" s="13">
+        <f t="shared" si="0"/>
+        <v>44973.229444444441</v>
       </c>
       <c r="N14" s="10">
-        <f>LOOKUP(O14,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="O14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="10">
+        <f>LOOKUP(P14,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="P14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P14" s="19"/>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="Q14" s="19"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1741,19 +1795,23 @@
       <c r="L15" s="25">
         <v>1676072785000</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="13">
+        <f t="shared" si="0"/>
+        <v>44967.990567129629</v>
+      </c>
+      <c r="N15" s="10">
         <v>0</v>
       </c>
-      <c r="N15" s="10">
-        <f>LOOKUP(O15,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="O15" s="10" t="s">
+      <c r="O15" s="10">
+        <f>LOOKUP(P15,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="P15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P15" s="19"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1791,19 +1849,23 @@
       <c r="L16" s="25">
         <v>1675274216000</v>
       </c>
-      <c r="M16" s="10">
-        <v>1</v>
+      <c r="M16" s="13">
+        <f t="shared" si="0"/>
+        <v>44958.747870370367</v>
       </c>
       <c r="N16" s="10">
-        <f>LOOKUP(O16,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="O16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O16" s="10">
+        <f>LOOKUP(P16,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="P16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P16" s="19"/>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1841,19 +1903,23 @@
       <c r="L17" s="25">
         <v>1675883156000</v>
       </c>
-      <c r="M17" s="10">
-        <v>1</v>
+      <c r="M17" s="13">
+        <f t="shared" si="0"/>
+        <v>44965.795787037037</v>
       </c>
       <c r="N17" s="10">
-        <f>LOOKUP(O17,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="O17" s="10">
+        <f>LOOKUP(P17,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="P17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P17" s="19"/>
-    </row>
-    <row r="18" spans="1:16" customFormat="1">
+      <c r="Q17" s="19"/>
+    </row>
+    <row r="18" spans="1:17" customFormat="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1891,19 +1957,22 @@
       <c r="L18" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="N18" s="10">
-        <f>LOOKUP(O18,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="O18" s="10" t="s">
+      <c r="N18" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18" s="10">
+        <f>LOOKUP(P18,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="P18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="19"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1941,19 +2010,23 @@
       <c r="L19" s="25">
         <v>1675609542000</v>
       </c>
-      <c r="M19" s="10">
-        <v>1</v>
+      <c r="M19" s="13">
+        <f t="shared" si="0"/>
+        <v>44962.628958333335</v>
       </c>
       <c r="N19" s="10">
-        <f>LOOKUP(O19,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="O19" s="10">
+        <f>LOOKUP(P19,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="P19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P19" s="19"/>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1991,19 +2064,23 @@
       <c r="L20" s="25">
         <v>1676322794000</v>
       </c>
-      <c r="M20" s="10">
-        <v>1</v>
+      <c r="M20" s="13">
+        <f t="shared" si="0"/>
+        <v>44970.884189814809</v>
       </c>
       <c r="N20" s="10">
-        <f>LOOKUP(O20,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="O20" s="10">
+        <f>LOOKUP(P20,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="O20" s="10" t="s">
+      <c r="P20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P20" s="19"/>
-    </row>
-    <row r="21" spans="1:16" customFormat="1">
+      <c r="Q20" s="19"/>
+    </row>
+    <row r="21" spans="1:17" customFormat="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2041,19 +2118,22 @@
       <c r="L21" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="N21" s="10">
-        <f>LOOKUP(O21,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="O21" s="10" t="s">
+      <c r="N21" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="O21" s="10">
+        <f>LOOKUP(P21,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="P21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="19"/>
-    </row>
-    <row r="22" spans="1:16" customFormat="1">
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="1:17" customFormat="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2091,19 +2171,22 @@
       <c r="L22" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="N22" s="10">
-        <f>LOOKUP(O22,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="O22" s="10" t="s">
+      <c r="N22" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="O22" s="10">
+        <f>LOOKUP(P22,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="P22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="19"/>
-    </row>
-    <row r="23" spans="1:16" customFormat="1">
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="1:17" customFormat="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2141,19 +2224,22 @@
       <c r="L23" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="N23" s="10">
-        <f>LOOKUP(O23,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="O23" s="10" t="s">
+      <c r="N23" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="O23" s="10">
+        <f>LOOKUP(P23,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="P23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="19"/>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2191,19 +2277,23 @@
       <c r="L24" s="25">
         <v>1675801821000</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="13">
+        <f t="shared" si="0"/>
+        <v>44964.854409722218</v>
+      </c>
+      <c r="N24" s="10">
         <v>0</v>
       </c>
-      <c r="N24" s="10">
-        <f>LOOKUP(O24,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="O24" s="10" t="s">
+      <c r="O24" s="10">
+        <f>LOOKUP(P24,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="P24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P24" s="19"/>
-    </row>
-    <row r="25" spans="1:16" customFormat="1">
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" spans="1:17" customFormat="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2241,19 +2331,22 @@
       <c r="L25" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="N25" s="10">
-        <f>LOOKUP(O25,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
-        <v>1</v>
-      </c>
-      <c r="O25" s="10" t="s">
+      <c r="N25" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="O25" s="10">
+        <f>LOOKUP(P25,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+        <v>1</v>
+      </c>
+      <c r="P25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P25" s="19"/>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25" s="19"/>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2291,17 +2384,21 @@
       <c r="L26" s="25">
         <v>44958.546759259261</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="13">
+        <f t="shared" si="0"/>
+        <v>25569.000520353551</v>
+      </c>
+      <c r="N26" s="10">
         <v>0</v>
       </c>
-      <c r="N26" s="10">
-        <f>LOOKUP(O26,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
+      <c r="O26" s="10">
+        <f>LOOKUP(P26,Лист2!$B$2:$B$3,Лист2!$A$2:$A$3)</f>
         <v>2</v>
       </c>
-      <c r="O26" s="10" t="s">
+      <c r="P26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2311,6 +2408,7 @@
     <hyperlink ref="G17" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
